--- a/exampleProblems/ch9_048/mnova_template_ch9_048.xlsx
+++ b/exampleProblems/ch9_048/mnova_template_ch9_048.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleLiquidNMRanalysisVoila/development/exampleProblems/ch9_048/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_048/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BD8A0A-B01A-3642-ADB0-F42EE9632BA8}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E335ED6-1BF9-4510-9D04-ACA06D076CB8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -160,13 +160,22 @@
   </si>
   <si>
     <t>C (dt)</t>
+  </si>
+  <si>
+    <t>6,8,8</t>
+  </si>
+  <si>
+    <t>6,9,9</t>
+  </si>
+  <si>
+    <t>8,8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,17 +604,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -623,15 +632,15 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -658,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -687,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -716,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -739,13 +748,13 @@
         <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -768,13 +777,13 @@
         <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -803,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -825,14 +834,14 @@
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1">
-        <v>8</v>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -843,7 +852,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -854,7 +863,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -865,7 +874,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -890,9 +899,9 @@
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -919,7 +928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -944,7 +953,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -969,7 +978,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -994,7 +1003,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1019,7 +1028,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1044,7 +1053,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1069,7 +1078,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1080,7 +1089,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1091,7 +1100,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1102,7 +1111,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1113,7 +1122,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1124,7 +1133,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1135,7 +1144,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1146,7 +1155,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1171,9 +1180,9 @@
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1206,7 +1215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1238,7 +1247,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1270,7 +1279,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1302,7 +1311,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1334,7 +1343,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1365,7 +1374,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1397,7 +1406,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1411,7 +1420,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1425,7 +1434,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1439,7 +1448,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1453,10 +1462,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1473,9 +1482,9 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -1519,7 +1528,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1540,7 +1549,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1561,7 +1570,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1582,7 +1591,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1603,7 +1612,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1624,7 +1633,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1645,7 +1654,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1666,7 +1675,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1687,7 +1696,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1708,7 +1717,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1729,7 +1738,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1750,7 +1759,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1771,7 +1780,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1792,7 +1801,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1813,7 +1822,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -1834,7 +1843,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1855,7 +1864,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1885,7 +1894,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1902,7 +1911,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -1919,7 +1928,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -1936,7 +1945,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1947,7 +1956,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1958,7 +1967,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1969,7 +1978,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1980,7 +1989,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1991,7 +2000,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2002,7 +2011,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2013,7 +2022,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2024,7 +2033,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2035,7 +2044,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2046,7 +2055,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2057,7 +2066,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2068,7 +2077,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2079,7 +2088,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2104,9 +2113,9 @@
       <selection activeCell="K6" sqref="K6:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -2150,7 +2159,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2169,7 +2178,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2188,7 +2197,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2207,7 +2216,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2226,7 +2235,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2245,7 +2254,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2264,7 +2273,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2283,7 +2292,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2302,7 +2311,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2321,7 +2330,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2340,7 +2349,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2359,7 +2368,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2378,7 +2387,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2397,7 +2406,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2416,7 +2425,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2435,7 +2444,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2454,7 +2463,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2473,7 +2482,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2488,7 +2497,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2503,7 +2512,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2518,7 +2527,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2533,7 +2542,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2548,7 +2557,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2563,7 +2572,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2578,7 +2587,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -2593,7 +2602,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -2608,7 +2617,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -2623,7 +2632,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -2638,7 +2647,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -2653,7 +2662,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -2668,7 +2677,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -2683,7 +2692,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -2698,7 +2707,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -2713,7 +2722,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -2728,7 +2737,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -2743,7 +2752,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2758,7 +2767,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -2773,7 +2782,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -2788,7 +2797,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -2803,7 +2812,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2818,7 +2827,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -2833,7 +2842,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -2848,7 +2857,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -2863,7 +2872,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
@@ -2892,9 +2901,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>10</v>
@@ -2921,7 +2930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2946,7 +2955,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2971,7 +2980,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2996,7 +3005,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3021,7 +3030,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3046,7 +3055,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3071,7 +3080,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3082,7 +3091,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3093,7 +3102,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3104,7 +3113,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3121,12 +3130,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3347,15 +3353,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3380,18 +3398,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_048/mnova_template_ch9_048.xlsx
+++ b/exampleProblems/ch9_048/mnova_template_ch9_048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_048/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E335ED6-1BF9-4510-9D04-ACA06D076CB8}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F01A4064-D525-4499-891F-DE1F6D8A1A25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>8,8</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>CCC(C)C(N)C(=O)O</t>
   </si>
 </sst>
 </file>
@@ -598,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,17 +615,23 @@
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3130,9 +3142,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3353,27 +3368,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3398,9 +3401,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_048/mnova_template_ch9_048.xlsx
+++ b/exampleProblems/ch9_048/mnova_template_ch9_048.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_048/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F01A4064-D525-4499-891F-DE1F6D8A1A25}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_242F4E9F812AF4547452C13C608265DE5A150117" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15AB1DB4-6D8B-48FC-94EF-15FB713F07C2}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="1680" windowWidth="23880" windowHeight="13620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="COSY" sheetId="5" r:id="rId5"/>
     <sheet name="HMBC" sheetId="8" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -606,13 +607,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -904,7 +906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -1185,11 +1187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1304,7 @@
         <v>27.5</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" s="1">
         <v>8.69</v>
@@ -1334,7 +1336,7 @@
         <v>27.5</v>
       </c>
       <c r="D5" s="1">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="E5" s="1">
         <v>17.059999999999999</v>
@@ -1366,7 +1368,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E6" s="1">
         <v>11.66</v>
@@ -1397,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="E7" s="1">
         <v>9.64</v>
@@ -1487,11 +1489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -3141,6 +3143,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4FE22A-8828-BD47-9A4C-91DB06AD109C}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3151,6 +3201,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3367,12 +3423,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
@@ -3382,6 +3432,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3398,21 +3465,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_048/mnova_template_ch9_048.xlsx
+++ b/exampleProblems/ch9_048/mnova_template_ch9_048.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_048/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_242F4E9F812AF4547452C13C608265DE5A150117" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15AB1DB4-6D8B-48FC-94EF-15FB713F07C2}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_242F4E9F812AF4547452C13C608265DE5A150117" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A362F0B-0B44-4AEE-B9EA-C1E1E6502572}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="1680" windowWidth="23880" windowHeight="13620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="1650" windowWidth="23880" windowHeight="13620" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -1190,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2123,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,9 +2497,7 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2512,9 +2510,7 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2527,9 +2523,7 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2542,9 +2536,7 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2557,9 +2549,7 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
+      <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2572,9 +2562,7 @@
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
+      <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2587,9 +2575,7 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
+      <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2602,9 +2588,7 @@
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2617,9 +2601,7 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2632,9 +2614,7 @@
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2647,9 +2627,7 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2662,9 +2640,7 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
+      <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2677,9 +2653,7 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
+      <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2692,9 +2666,7 @@
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
+      <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2707,9 +2679,7 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
+      <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2722,9 +2692,7 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
+      <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2737,9 +2705,7 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
+      <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2752,9 +2718,7 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
+      <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2767,9 +2731,7 @@
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
+      <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2782,9 +2744,7 @@
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
+      <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2797,9 +2757,7 @@
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
+      <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2812,9 +2770,7 @@
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
+      <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2827,9 +2783,7 @@
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
+      <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2842,9 +2796,7 @@
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
+      <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2857,9 +2809,7 @@
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
+      <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2872,9 +2822,7 @@
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
+      <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2887,9 +2835,7 @@
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -3192,21 +3138,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3423,10 +3354,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3449,20 +3406,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>